--- a/report.xlsx
+++ b/report.xlsx
@@ -446,10 +446,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="34" customWidth="1" min="2" max="2"/>
-    <col width="72" customWidth="1" min="3" max="3"/>
-    <col width="39" customWidth="1" min="4" max="4"/>
-    <col width="77" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="44" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,22 +460,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Динамика уровня зарплат по годам</t>
+          <t>Средняя зарплата</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Динамика уровня зарплат по годам для выбранной профессии - Программист</t>
+          <t>Средняя зарплата - Программист</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Динамика количества вакансий по годам</t>
+          <t>Количество вакансий по годам</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Динамика количества вакансий по годам для выбранной профессии - Программист</t>
+          <t>Количество вакансий по годам - Программист</t>
         </is>
       </c>
     </row>
@@ -487,10 +487,10 @@
         <v>38916</v>
       </c>
       <c r="C2" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>2196</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>43770</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>317</v>
@@ -504,10 +504,10 @@
         <v>43646</v>
       </c>
       <c r="C3" s="2" t="n">
+        <v>50412</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>17549</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>50412</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>2460</v>
@@ -521,10 +521,10 @@
         <v>42492</v>
       </c>
       <c r="C4" s="2" t="n">
+        <v>46699</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <v>17709</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>46699</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>2066</v>
@@ -538,10 +538,10 @@
         <v>43846</v>
       </c>
       <c r="C5" s="2" t="n">
+        <v>50570</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>29093</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>50570</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>3614</v>
@@ -555,10 +555,10 @@
         <v>47451</v>
       </c>
       <c r="C6" s="2" t="n">
+        <v>55770</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>36700</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>55770</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>4422</v>
@@ -572,10 +572,10 @@
         <v>48243</v>
       </c>
       <c r="C7" s="2" t="n">
+        <v>57960</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <v>44153</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>57960</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>4966</v>
@@ -589,10 +589,10 @@
         <v>51510</v>
       </c>
       <c r="C8" s="2" t="n">
+        <v>58804</v>
+      </c>
+      <c r="D8" s="2" t="n">
         <v>59954</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>58804</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>5990</v>
@@ -606,10 +606,10 @@
         <v>50658</v>
       </c>
       <c r="C9" s="2" t="n">
+        <v>62384</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>66837</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>62384</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>5492</v>
@@ -623,10 +623,10 @@
         <v>52696</v>
       </c>
       <c r="C10" s="2" t="n">
+        <v>62322</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>70039</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>62322</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>5375</v>
@@ -640,10 +640,10 @@
         <v>62675</v>
       </c>
       <c r="C11" s="2" t="n">
+        <v>66817</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>75145</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>66817</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>7219</v>
@@ -657,10 +657,10 @@
         <v>60935</v>
       </c>
       <c r="C12" s="2" t="n">
+        <v>72460</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <v>82823</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>72460</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>8105</v>
@@ -674,10 +674,10 @@
         <v>58335</v>
       </c>
       <c r="C13" s="2" t="n">
+        <v>76879</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>131701</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>76879</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>10062</v>
@@ -691,10 +691,10 @@
         <v>69467</v>
       </c>
       <c r="C14" s="2" t="n">
+        <v>85300</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <v>115086</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>85300</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>9016</v>
@@ -708,10 +708,10 @@
         <v>73431</v>
       </c>
       <c r="C15" s="2" t="n">
+        <v>89791</v>
+      </c>
+      <c r="D15" s="2" t="n">
         <v>102243</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>89791</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>7113</v>
@@ -725,10 +725,10 @@
         <v>82690</v>
       </c>
       <c r="C16" s="2" t="n">
+        <v>100987</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <v>57623</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>100987</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>3466</v>
@@ -742,10 +742,10 @@
         <v>91795</v>
       </c>
       <c r="C17" s="2" t="n">
+        <v>116651</v>
+      </c>
+      <c r="D17" s="2" t="n">
         <v>18294</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>116651</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>1115</v>
